--- a/wage.xlsx
+++ b/wage.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20389"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuang\Documents\_work\_teaching\BMIS342S23\assessment\assignment\assn3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chuang\Documents\_work\_teaching\_Current\BMIS342S26\assessment\assignment\S26\assn2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{1755C023-1D7A-4D9E-817A-5A704DD15522}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F40858A-B33D-494C-B26E-1C1AE2D28B3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="8346"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="wage" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1771" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1772" uniqueCount="617">
   <si>
     <t>FirstName</t>
   </si>
@@ -1868,13 +1881,16 @@
   </si>
   <si>
     <t>Tsoflias</t>
+  </si>
+  <si>
+    <t>HireDate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2008,6 +2024,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0A0A0A"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="33">
@@ -2351,8 +2373,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2412,9 +2435,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2452,7 +2475,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2558,7 +2581,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2700,33 +2723,34 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H297"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I297"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.47265625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.15625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.3125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.89453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.5234375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.3671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2751,8 +2775,11 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2777,8 +2804,11 @@
       <c r="H2">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2" s="1">
+        <v>45229</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2803,8 +2833,11 @@
       <c r="H3">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3" s="1">
+        <v>40098</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -2829,8 +2862,11 @@
       <c r="H4">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4" s="1">
+        <v>42449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -2855,8 +2891,11 @@
       <c r="H5">
         <v>40</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5" s="1">
+        <v>41713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -2881,8 +2920,11 @@
       <c r="H6">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6" s="1">
+        <v>37958</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -2907,8 +2949,11 @@
       <c r="H7">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7" s="1">
+        <v>41292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
@@ -2933,8 +2978,11 @@
       <c r="H8">
         <v>43</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8" s="1">
+        <v>35542</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -2959,8 +3007,11 @@
       <c r="H9">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9" s="1">
+        <v>41572</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -2985,8 +3036,11 @@
       <c r="H10">
         <v>43</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10" s="1">
+        <v>39962</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -3011,8 +3065,11 @@
       <c r="H11">
         <v>34</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11" s="1">
+        <v>41951</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>42</v>
       </c>
@@ -3037,8 +3094,11 @@
       <c r="H12">
         <v>40</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12" s="1">
+        <v>44981</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -3063,8 +3123,11 @@
       <c r="H13">
         <v>37</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13" s="1">
+        <v>38446</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -3089,8 +3152,11 @@
       <c r="H14">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14" s="1">
+        <v>41765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -3115,8 +3181,11 @@
       <c r="H15">
         <v>38</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15" s="1">
+        <v>44639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>54</v>
       </c>
@@ -3141,8 +3210,11 @@
       <c r="H16">
         <v>44</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16" s="1">
+        <v>41038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>56</v>
       </c>
@@ -3167,8 +3239,11 @@
       <c r="H17">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17" s="1">
+        <v>33412</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>60</v>
       </c>
@@ -3193,8 +3268,11 @@
       <c r="H18">
         <v>38</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18" s="1">
+        <v>40389</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>64</v>
       </c>
@@ -3219,8 +3297,11 @@
       <c r="H19">
         <v>34</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19" s="1">
+        <v>33762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>68</v>
       </c>
@@ -3245,8 +3326,11 @@
       <c r="H20">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20" s="1">
+        <v>42191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -3271,8 +3355,11 @@
       <c r="H21">
         <v>33</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21" s="1">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>75</v>
       </c>
@@ -3297,8 +3384,11 @@
       <c r="H22">
         <v>35</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22" s="1">
+        <v>40959</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>77</v>
       </c>
@@ -3320,8 +3410,11 @@
       <c r="H23">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23" s="1">
+        <v>44621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>79</v>
       </c>
@@ -3346,8 +3439,11 @@
       <c r="H24">
         <v>33</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24" s="1">
+        <v>42004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -3372,8 +3468,11 @@
       <c r="H25">
         <v>43</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25" s="1">
+        <v>42232</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>85</v>
       </c>
@@ -3398,8 +3497,11 @@
       <c r="H26">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26" s="1">
+        <v>39445</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>87</v>
       </c>
@@ -3424,8 +3526,11 @@
       <c r="H27">
         <v>36</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27" s="1">
+        <v>36913</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>89</v>
       </c>
@@ -3450,8 +3555,11 @@
       <c r="H28">
         <v>37</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28" s="1">
+        <v>39079</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>92</v>
       </c>
@@ -3473,8 +3581,11 @@
       <c r="H29">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29" s="1">
+        <v>40965</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -3499,8 +3610,11 @@
       <c r="H30">
         <v>36</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30" s="1">
+        <v>33181</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>96</v>
       </c>
@@ -3525,8 +3639,11 @@
       <c r="H31">
         <v>39</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31" s="1">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>98</v>
       </c>
@@ -3551,8 +3668,11 @@
       <c r="H32">
         <v>40</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32" s="1">
+        <v>41396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>100</v>
       </c>
@@ -3577,8 +3697,11 @@
       <c r="H33">
         <v>35</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33" s="1">
+        <v>44171</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>104</v>
       </c>
@@ -3603,8 +3726,11 @@
       <c r="H34">
         <v>35</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34" s="1">
+        <v>38473</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>54</v>
       </c>
@@ -3629,8 +3755,11 @@
       <c r="H35">
         <v>31</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I35" s="1">
+        <v>42289</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>108</v>
       </c>
@@ -3655,8 +3784,11 @@
       <c r="H36">
         <v>40</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I36" s="1">
+        <v>39724</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>111</v>
       </c>
@@ -3681,8 +3813,11 @@
       <c r="H37">
         <v>30</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I37" s="1">
+        <v>35999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>112</v>
       </c>
@@ -3707,8 +3842,11 @@
       <c r="H38">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I38" s="1">
+        <v>45563</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>114</v>
       </c>
@@ -3733,8 +3871,11 @@
       <c r="H39">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I39" s="1">
+        <v>36075</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>116</v>
       </c>
@@ -3759,8 +3900,11 @@
       <c r="H40">
         <v>36</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I40" s="1">
+        <v>41841</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>118</v>
       </c>
@@ -3785,8 +3929,11 @@
       <c r="H41">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I41" s="1">
+        <v>36884</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>120</v>
       </c>
@@ -3811,8 +3958,11 @@
       <c r="H42">
         <v>43</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I42" s="1">
+        <v>38973</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -3837,8 +3987,11 @@
       <c r="H43">
         <v>41</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I43" s="1">
+        <v>44913</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>125</v>
       </c>
@@ -3863,8 +4016,11 @@
       <c r="H44">
         <v>33</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I44" s="1">
+        <v>42259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>127</v>
       </c>
@@ -3889,8 +4045,11 @@
       <c r="H45">
         <v>31</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I45" s="1">
+        <v>41143</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>129</v>
       </c>
@@ -3915,8 +4074,11 @@
       <c r="H46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I46" s="1">
+        <v>36187</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>131</v>
       </c>
@@ -3941,8 +4103,11 @@
       <c r="H47">
         <v>43</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I47" s="1">
+        <v>34598</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>134</v>
       </c>
@@ -3967,8 +4132,11 @@
       <c r="H48">
         <v>42</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I48" s="1">
+        <v>42046</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>136</v>
       </c>
@@ -3990,8 +4158,11 @@
       <c r="H49">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I49" s="1">
+        <v>39451</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>138</v>
       </c>
@@ -4016,8 +4187,11 @@
       <c r="H50">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I50" s="1">
+        <v>43198</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>140</v>
       </c>
@@ -4042,8 +4216,11 @@
       <c r="H51">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I51" s="1">
+        <v>37984</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>142</v>
       </c>
@@ -4068,8 +4245,11 @@
       <c r="H52">
         <v>33</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I52" s="1">
+        <v>38316</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>144</v>
       </c>
@@ -4094,8 +4274,11 @@
       <c r="H53">
         <v>30</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I53" s="1">
+        <v>38404</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -4120,8 +4303,11 @@
       <c r="H54">
         <v>41</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I54" s="1">
+        <v>34123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>148</v>
       </c>
@@ -4146,8 +4332,11 @@
       <c r="H55">
         <v>36</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I55" s="1">
+        <v>42706</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>39</v>
       </c>
@@ -4172,8 +4361,11 @@
       <c r="H56">
         <v>45</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I56" s="1">
+        <v>35593</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>151</v>
       </c>
@@ -4198,8 +4390,11 @@
       <c r="H57">
         <v>45</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I57" s="1">
+        <v>42304</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>54</v>
       </c>
@@ -4224,8 +4419,11 @@
       <c r="H58">
         <v>39</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I58" s="1">
+        <v>40713</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>54</v>
       </c>
@@ -4250,8 +4448,11 @@
       <c r="H59">
         <v>44</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I59" s="1">
+        <v>38444</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>155</v>
       </c>
@@ -4276,8 +4477,11 @@
       <c r="H60">
         <v>44</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I60" s="1">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>157</v>
       </c>
@@ -4302,8 +4506,11 @@
       <c r="H61">
         <v>42</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I61" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>159</v>
       </c>
@@ -4328,8 +4535,11 @@
       <c r="H62">
         <v>37</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I62" s="1">
+        <v>37050</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>161</v>
       </c>
@@ -4354,8 +4564,11 @@
       <c r="H63">
         <v>40</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I63" s="1">
+        <v>45610</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>163</v>
       </c>
@@ -4380,8 +4593,11 @@
       <c r="H64">
         <v>30</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I64" s="1">
+        <v>42764</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>165</v>
       </c>
@@ -4403,8 +4619,11 @@
       <c r="H65">
         <v>34</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I65" s="1">
+        <v>40651</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>167</v>
       </c>
@@ -4429,8 +4648,11 @@
       <c r="H66">
         <v>40</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I66" s="1">
+        <v>40372</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>169</v>
       </c>
@@ -4455,8 +4677,11 @@
       <c r="H67">
         <v>33</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I67" s="1">
+        <v>38232</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>87</v>
       </c>
@@ -4481,8 +4706,11 @@
       <c r="H68">
         <v>43</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I68" s="1">
+        <v>43772</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>172</v>
       </c>
@@ -4507,8 +4735,11 @@
       <c r="H69">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I69" s="1">
+        <v>36221</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>174</v>
       </c>
@@ -4533,8 +4764,11 @@
       <c r="H70">
         <v>41</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I70" s="1">
+        <v>39151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>175</v>
       </c>
@@ -4559,8 +4793,11 @@
       <c r="H71">
         <v>35</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I71" s="1">
+        <v>36419</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>177</v>
       </c>
@@ -4585,8 +4822,11 @@
       <c r="H72">
         <v>42</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I72" s="1">
+        <v>38584</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>179</v>
       </c>
@@ -4611,8 +4851,11 @@
       <c r="H73">
         <v>34</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I73" s="1">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>181</v>
       </c>
@@ -4634,8 +4877,11 @@
       <c r="H74">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I74" s="1">
+        <v>45908</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>184</v>
       </c>
@@ -4660,8 +4906,11 @@
       <c r="H75">
         <v>45</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I75" s="1">
+        <v>44323</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>186</v>
       </c>
@@ -4686,8 +4935,11 @@
       <c r="H76">
         <v>36</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I76" s="1">
+        <v>41606</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>188</v>
       </c>
@@ -4712,8 +4964,11 @@
       <c r="H77">
         <v>31</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I77" s="1">
+        <v>43316</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>64</v>
       </c>
@@ -4738,8 +4993,11 @@
       <c r="H78">
         <v>37</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I78" s="1">
+        <v>45255</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>191</v>
       </c>
@@ -4764,8 +5022,11 @@
       <c r="H79">
         <v>41</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I79" s="1">
+        <v>35740</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>42</v>
       </c>
@@ -4790,8 +5051,11 @@
       <c r="H80">
         <v>41</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I80" s="1">
+        <v>43911</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>194</v>
       </c>
@@ -4816,8 +5080,11 @@
       <c r="H81">
         <v>41</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I81" s="1">
+        <v>44649</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>196</v>
       </c>
@@ -4839,8 +5106,11 @@
       <c r="H82">
         <v>40</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I82" s="1">
+        <v>42361</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>198</v>
       </c>
@@ -4865,8 +5135,11 @@
       <c r="H83">
         <v>40</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I83" s="1">
+        <v>44594</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>201</v>
       </c>
@@ -4891,8 +5164,11 @@
       <c r="H84">
         <v>35</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I84" s="1">
+        <v>33365</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>203</v>
       </c>
@@ -4917,8 +5193,11 @@
       <c r="H85">
         <v>39</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I85" s="1">
+        <v>36189</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>205</v>
       </c>
@@ -4943,8 +5222,11 @@
       <c r="H86">
         <v>44</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I86" s="1">
+        <v>43477</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>207</v>
       </c>
@@ -4969,8 +5251,11 @@
       <c r="H87">
         <v>34</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I87" s="1">
+        <v>39346</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>209</v>
       </c>
@@ -4995,8 +5280,11 @@
       <c r="H88">
         <v>42</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I88" s="1">
+        <v>38224</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>211</v>
       </c>
@@ -5021,8 +5309,11 @@
       <c r="H89">
         <v>44</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I89" s="1">
+        <v>39615</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>213</v>
       </c>
@@ -5047,8 +5338,11 @@
       <c r="H90">
         <v>44</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I90" s="1">
+        <v>37332</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>215</v>
       </c>
@@ -5073,8 +5367,11 @@
       <c r="H91">
         <v>37</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I91" s="1">
+        <v>35954</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>218</v>
       </c>
@@ -5099,8 +5396,11 @@
       <c r="H92">
         <v>41</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I92" s="1">
+        <v>33874</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>220</v>
       </c>
@@ -5125,8 +5425,11 @@
       <c r="H93">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I93" s="1">
+        <v>37455</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>221</v>
       </c>
@@ -5151,8 +5454,11 @@
       <c r="H94">
         <v>35</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I94" s="1">
+        <v>35125</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>87</v>
       </c>
@@ -5177,8 +5483,11 @@
       <c r="H95">
         <v>31</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I95" s="1">
+        <v>37447</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>224</v>
       </c>
@@ -5203,8 +5512,11 @@
       <c r="H96">
         <v>42</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I96" s="1">
+        <v>41154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>225</v>
       </c>
@@ -5229,8 +5541,11 @@
       <c r="H97">
         <v>39</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I97" s="1">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>226</v>
       </c>
@@ -5255,8 +5570,11 @@
       <c r="H98">
         <v>41</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I98" s="1">
+        <v>40133</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>228</v>
       </c>
@@ -5281,8 +5599,11 @@
       <c r="H99">
         <v>43</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I99" s="1">
+        <v>44073</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>134</v>
       </c>
@@ -5307,8 +5628,11 @@
       <c r="H100">
         <v>39</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I100" s="1">
+        <v>38196</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>142</v>
       </c>
@@ -5333,8 +5657,11 @@
       <c r="H101">
         <v>40</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I101" s="1">
+        <v>38832</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>231</v>
       </c>
@@ -5359,8 +5686,11 @@
       <c r="H102">
         <v>34</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I102" s="1">
+        <v>35944</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>233</v>
       </c>
@@ -5385,8 +5715,11 @@
       <c r="H103">
         <v>30</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I103" s="1">
+        <v>42760</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>235</v>
       </c>
@@ -5411,8 +5744,11 @@
       <c r="H104">
         <v>36</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I104" s="1">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>236</v>
       </c>
@@ -5437,8 +5773,11 @@
       <c r="H105">
         <v>43</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I105" s="1">
+        <v>45188</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>201</v>
       </c>
@@ -5463,8 +5802,11 @@
       <c r="H106">
         <v>36</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I106" s="1">
+        <v>36370</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>239</v>
       </c>
@@ -5489,8 +5831,11 @@
       <c r="H107">
         <v>37</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I107" s="1">
+        <v>43986</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>241</v>
       </c>
@@ -5515,8 +5860,11 @@
       <c r="H108">
         <v>42</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I108" s="1">
+        <v>44791</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>39</v>
       </c>
@@ -5541,8 +5889,11 @@
       <c r="H109">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I109" s="1">
+        <v>36151</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>245</v>
       </c>
@@ -5567,8 +5918,11 @@
       <c r="H110">
         <v>33</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I110" s="1">
+        <v>44296</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>247</v>
       </c>
@@ -5593,8 +5947,11 @@
       <c r="H111">
         <v>38</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I111" s="1">
+        <v>35101</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>249</v>
       </c>
@@ -5619,8 +5976,11 @@
       <c r="H112">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I112" s="1">
+        <v>45271</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>251</v>
       </c>
@@ -5645,8 +6005,11 @@
       <c r="H113">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I113" s="1">
+        <v>41852</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>253</v>
       </c>
@@ -5671,8 +6034,11 @@
       <c r="H114">
         <v>37</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I114" s="1">
+        <v>34582</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>255</v>
       </c>
@@ -5697,8 +6063,11 @@
       <c r="H115">
         <v>45</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I115" s="1">
+        <v>36294</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>54</v>
       </c>
@@ -5723,8 +6092,11 @@
       <c r="H116">
         <v>42</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I116" s="1">
+        <v>44198</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>259</v>
       </c>
@@ -5749,8 +6121,11 @@
       <c r="H117">
         <v>36</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I117" s="1">
+        <v>37941</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>87</v>
       </c>
@@ -5775,8 +6150,11 @@
       <c r="H118">
         <v>41</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I118" s="1">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>263</v>
       </c>
@@ -5801,8 +6179,11 @@
       <c r="H119">
         <v>40</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I119" s="1">
+        <v>45169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>265</v>
       </c>
@@ -5827,8 +6208,11 @@
       <c r="H120">
         <v>34</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I120" s="1">
+        <v>37858</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>267</v>
       </c>
@@ -5853,8 +6237,11 @@
       <c r="H121">
         <v>36</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I121" s="1">
+        <v>41133</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>269</v>
       </c>
@@ -5879,8 +6266,11 @@
       <c r="H122">
         <v>31</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I122" s="1">
+        <v>42585</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>271</v>
       </c>
@@ -5905,8 +6295,11 @@
       <c r="H123">
         <v>31</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I123" s="1">
+        <v>44606</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>273</v>
       </c>
@@ -5931,8 +6324,11 @@
       <c r="H124">
         <v>31</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I124" s="1">
+        <v>44955</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>275</v>
       </c>
@@ -5957,8 +6353,11 @@
       <c r="H125">
         <v>41</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I125" s="1">
+        <v>34188</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>92</v>
       </c>
@@ -5983,8 +6382,11 @@
       <c r="H126">
         <v>44</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I126" s="1">
+        <v>35791</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>278</v>
       </c>
@@ -6009,8 +6411,11 @@
       <c r="H127">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I127" s="1">
+        <v>36703</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>280</v>
       </c>
@@ -6035,8 +6440,11 @@
       <c r="H128">
         <v>36</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I128" s="1">
+        <v>38072</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>282</v>
       </c>
@@ -6061,8 +6469,11 @@
       <c r="H129">
         <v>35</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I129" s="1">
+        <v>40012</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>191</v>
       </c>
@@ -6087,8 +6498,11 @@
       <c r="H130">
         <v>34</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I130" s="1">
+        <v>44872</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>285</v>
       </c>
@@ -6113,8 +6527,11 @@
       <c r="H131">
         <v>30</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I131" s="1">
+        <v>38269</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>287</v>
       </c>
@@ -6139,8 +6556,11 @@
       <c r="H132">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I132" s="1">
+        <v>42741</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>87</v>
       </c>
@@ -6165,8 +6585,11 @@
       <c r="H133">
         <v>44</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I133" s="1">
+        <v>37934</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>290</v>
       </c>
@@ -6191,8 +6614,11 @@
       <c r="H134">
         <v>34</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I134" s="1">
+        <v>46012</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>292</v>
       </c>
@@ -6217,8 +6643,11 @@
       <c r="H135">
         <v>39</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I135" s="1">
+        <v>44367</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>87</v>
       </c>
@@ -6243,8 +6672,11 @@
       <c r="H136">
         <v>41</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I136" s="1">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>295</v>
       </c>
@@ -6269,8 +6701,11 @@
       <c r="H137">
         <v>31</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I137" s="1">
+        <v>44225</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>297</v>
       </c>
@@ -6295,8 +6730,11 @@
       <c r="H138">
         <v>42</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I138" s="1">
+        <v>37522</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>299</v>
       </c>
@@ -6321,8 +6759,11 @@
       <c r="H139">
         <v>40</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I139" s="1">
+        <v>40663</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>39</v>
       </c>
@@ -6347,8 +6788,11 @@
       <c r="H140">
         <v>34</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I140" s="1">
+        <v>37894</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>303</v>
       </c>
@@ -6373,8 +6817,11 @@
       <c r="H141">
         <v>45</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I141" s="1">
+        <v>38484</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>305</v>
       </c>
@@ -6399,8 +6846,11 @@
       <c r="H142">
         <v>43</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I142" s="1">
+        <v>34859</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>307</v>
       </c>
@@ -6425,8 +6875,11 @@
       <c r="H143">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I143" s="1">
+        <v>37018</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>309</v>
       </c>
@@ -6451,8 +6904,11 @@
       <c r="H144">
         <v>30</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I144" s="1">
+        <v>43120</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>311</v>
       </c>
@@ -6477,8 +6933,11 @@
       <c r="H145">
         <v>42</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I145" s="1">
+        <v>43079</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>280</v>
       </c>
@@ -6503,8 +6962,11 @@
       <c r="H146">
         <v>33</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I146" s="1">
+        <v>41422</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>205</v>
       </c>
@@ -6529,8 +6991,11 @@
       <c r="H147">
         <v>42</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I147" s="1">
+        <v>39932</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>315</v>
       </c>
@@ -6555,8 +7020,11 @@
       <c r="H148">
         <v>45</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I148" s="1">
+        <v>35625</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>317</v>
       </c>
@@ -6581,8 +7049,11 @@
       <c r="H149">
         <v>37</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I149" s="1">
+        <v>45223</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>319</v>
       </c>
@@ -6607,8 +7078,11 @@
       <c r="H150">
         <v>39</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I150" s="1">
+        <v>43216</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>321</v>
       </c>
@@ -6633,8 +7107,11 @@
       <c r="H151">
         <v>41</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I151" s="1">
+        <v>43516</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>323</v>
       </c>
@@ -6659,8 +7136,11 @@
       <c r="H152">
         <v>45</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I152" s="1">
+        <v>38678</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>221</v>
       </c>
@@ -6685,8 +7165,11 @@
       <c r="H153">
         <v>44</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I153" s="1">
+        <v>36739</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>327</v>
       </c>
@@ -6711,8 +7194,11 @@
       <c r="H154">
         <v>43</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I154" s="1">
+        <v>34475</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>329</v>
       </c>
@@ -6737,8 +7223,11 @@
       <c r="H155">
         <v>34</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I155" s="1">
+        <v>41942</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>331</v>
       </c>
@@ -6763,8 +7252,11 @@
       <c r="H156">
         <v>31</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I156" s="1">
+        <v>36384</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>111</v>
       </c>
@@ -6789,8 +7281,11 @@
       <c r="H157">
         <v>30</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I157" s="1">
+        <v>34412</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>333</v>
       </c>
@@ -6815,8 +7310,11 @@
       <c r="H158">
         <v>39</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I158" s="1">
+        <v>36032</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>336</v>
       </c>
@@ -6841,8 +7339,11 @@
       <c r="H159">
         <v>42</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I159" s="1">
+        <v>35448</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>338</v>
       </c>
@@ -6867,8 +7368,11 @@
       <c r="H160">
         <v>45</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I160" s="1">
+        <v>39668</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>340</v>
       </c>
@@ -6893,8 +7397,11 @@
       <c r="H161">
         <v>42</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I161" s="1">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>242</v>
       </c>
@@ -6919,8 +7426,11 @@
       <c r="H162">
         <v>45</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I162" s="1">
+        <v>39684</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>343</v>
       </c>
@@ -6945,8 +7455,11 @@
       <c r="H163">
         <v>39</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I163" s="1">
+        <v>40090</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>345</v>
       </c>
@@ -6971,8 +7484,11 @@
       <c r="H164">
         <v>31</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I164" s="1">
+        <v>33077</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>347</v>
       </c>
@@ -6997,8 +7513,11 @@
       <c r="H165">
         <v>36</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I165" s="1">
+        <v>44870</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>181</v>
       </c>
@@ -7023,8 +7542,11 @@
       <c r="H166">
         <v>36</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I166" s="1">
+        <v>36827</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>349</v>
       </c>
@@ -7049,8 +7571,11 @@
       <c r="H167">
         <v>40</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I167" s="1">
+        <v>40858</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>351</v>
       </c>
@@ -7075,8 +7600,11 @@
       <c r="H168">
         <v>34</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I168" s="1">
+        <v>41847</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>191</v>
       </c>
@@ -7101,8 +7629,11 @@
       <c r="H169">
         <v>43</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I169" s="1">
+        <v>33707</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>354</v>
       </c>
@@ -7127,8 +7658,11 @@
       <c r="H170">
         <v>31</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I170" s="1">
+        <v>40078</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>356</v>
       </c>
@@ -7153,8 +7687,11 @@
       <c r="H171">
         <v>35</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I171" s="1">
+        <v>43910</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>351</v>
       </c>
@@ -7179,8 +7716,11 @@
       <c r="H172">
         <v>45</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I172" s="1">
+        <v>34658</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>358</v>
       </c>
@@ -7202,8 +7742,11 @@
       <c r="H173">
         <v>43</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I173" s="1">
+        <v>44298</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>360</v>
       </c>
@@ -7228,8 +7771,11 @@
       <c r="H174">
         <v>32</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I174" s="1">
+        <v>45200</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>87</v>
       </c>
@@ -7254,8 +7800,11 @@
       <c r="H175">
         <v>39</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I175" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>363</v>
       </c>
@@ -7280,8 +7829,11 @@
       <c r="H176">
         <v>45</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I176" s="1">
+        <v>38330</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>39</v>
       </c>
@@ -7306,8 +7858,11 @@
       <c r="H177">
         <v>43</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I177" s="1">
+        <v>33772</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>278</v>
       </c>
@@ -7332,8 +7887,11 @@
       <c r="H178">
         <v>38</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I178" s="1">
+        <v>37006</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>366</v>
       </c>
@@ -7358,8 +7916,11 @@
       <c r="H179">
         <v>40</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I179" s="1">
+        <v>35482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>368</v>
       </c>
@@ -7384,8 +7945,11 @@
       <c r="H180">
         <v>37</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I180" s="1">
+        <v>38284</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>111</v>
       </c>
@@ -7410,8 +7974,11 @@
       <c r="H181">
         <v>39</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I181" s="1">
+        <v>33431</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>372</v>
       </c>
@@ -7433,8 +8000,11 @@
       <c r="H182">
         <v>43</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I182" s="1">
+        <v>36391</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>253</v>
       </c>
@@ -7456,8 +8026,11 @@
       <c r="H183">
         <v>31</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I183" s="1">
+        <v>36361</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>253</v>
       </c>
@@ -7479,8 +8052,11 @@
       <c r="H184">
         <v>43</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I184" s="1">
+        <v>43947</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>379</v>
       </c>
@@ -7505,8 +8081,11 @@
       <c r="H185">
         <v>39</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I185" s="1">
+        <v>36402</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>54</v>
       </c>
@@ -7531,8 +8110,11 @@
       <c r="H186">
         <v>32</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I186" s="1">
+        <v>41768</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>54</v>
       </c>
@@ -7557,8 +8139,11 @@
       <c r="H187">
         <v>34</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I187" s="1">
+        <v>40908</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>384</v>
       </c>
@@ -7583,8 +8168,11 @@
       <c r="H188">
         <v>38</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I188" s="1">
+        <v>42318</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>387</v>
       </c>
@@ -7609,8 +8197,11 @@
       <c r="H189">
         <v>41</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I189" s="1">
+        <v>42745</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>389</v>
       </c>
@@ -7635,8 +8226,11 @@
       <c r="H190">
         <v>39</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I190" s="1">
+        <v>39920</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>392</v>
       </c>
@@ -7661,8 +8255,11 @@
       <c r="H191">
         <v>38</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I191" s="1">
+        <v>35757</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>396</v>
       </c>
@@ -7687,8 +8284,11 @@
       <c r="H192">
         <v>30</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I192" s="1">
+        <v>44037</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>177</v>
       </c>
@@ -7713,8 +8313,11 @@
       <c r="H193">
         <v>32</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I193" s="1">
+        <v>37039</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>98</v>
       </c>
@@ -7739,8 +8342,11 @@
       <c r="H194">
         <v>38</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I194" s="1">
+        <v>32952</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>406</v>
       </c>
@@ -7765,8 +8371,11 @@
       <c r="H195">
         <v>35</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I195" s="1">
+        <v>35724</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>409</v>
       </c>
@@ -7791,8 +8400,11 @@
       <c r="H196">
         <v>30</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I196" s="1">
+        <v>43066</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>413</v>
       </c>
@@ -7817,8 +8429,11 @@
       <c r="H197">
         <v>31</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I197" s="1">
+        <v>45048</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>416</v>
       </c>
@@ -7840,8 +8455,11 @@
       <c r="H198">
         <v>35</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I198" s="1">
+        <v>43845</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>419</v>
       </c>
@@ -7866,8 +8484,11 @@
       <c r="H199">
         <v>33</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I199" s="1">
+        <v>35800</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>422</v>
       </c>
@@ -7892,8 +8513,11 @@
       <c r="H200">
         <v>33</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I200" s="1">
+        <v>37454</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>424</v>
       </c>
@@ -7918,8 +8542,11 @@
       <c r="H201">
         <v>42</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I201" s="1">
+        <v>36735</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>428</v>
       </c>
@@ -7944,8 +8571,11 @@
       <c r="H202">
         <v>40</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I202" s="1">
+        <v>35153</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>432</v>
       </c>
@@ -7970,8 +8600,11 @@
       <c r="H203">
         <v>43</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I203" s="1">
+        <v>34668</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>436</v>
       </c>
@@ -7996,8 +8629,11 @@
       <c r="H204">
         <v>32</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I204" s="1">
+        <v>34498</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>440</v>
       </c>
@@ -8022,8 +8658,11 @@
       <c r="H205">
         <v>30</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I205" s="1">
+        <v>33046</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>442</v>
       </c>
@@ -8048,8 +8687,11 @@
       <c r="H206">
         <v>41</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I206" s="1">
+        <v>36088</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>242</v>
       </c>
@@ -8074,8 +8716,11 @@
       <c r="H207">
         <v>40</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I207" s="1">
+        <v>44314</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>262</v>
       </c>
@@ -8100,8 +8745,11 @@
       <c r="H208">
         <v>44</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I208" s="1">
+        <v>40381</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>42</v>
       </c>
@@ -8126,8 +8774,11 @@
       <c r="H209">
         <v>40</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I209" s="1">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>452</v>
       </c>
@@ -8152,8 +8803,11 @@
       <c r="H210">
         <v>45</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I210" s="1">
+        <v>37946</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>455</v>
       </c>
@@ -8178,8 +8832,11 @@
       <c r="H211">
         <v>36</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I211" s="1">
+        <v>36920</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>458</v>
       </c>
@@ -8204,8 +8861,11 @@
       <c r="H212">
         <v>44</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I212" s="1">
+        <v>40127</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>461</v>
       </c>
@@ -8230,8 +8890,11 @@
       <c r="H213">
         <v>45</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I213" s="1">
+        <v>37994</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>62</v>
       </c>
@@ -8256,8 +8919,11 @@
       <c r="H214">
         <v>45</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I214" s="1">
+        <v>33767</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>62</v>
       </c>
@@ -8282,8 +8948,11 @@
       <c r="H215">
         <v>34</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I215" s="1">
+        <v>33417</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>465</v>
       </c>
@@ -8308,8 +8977,11 @@
       <c r="H216">
         <v>31</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I216" s="1">
+        <v>36955</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>54</v>
       </c>
@@ -8334,8 +9006,11 @@
       <c r="H217">
         <v>40</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I217" s="1">
+        <v>34051</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>331</v>
       </c>
@@ -8360,8 +9035,11 @@
       <c r="H218">
         <v>37</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I218" s="1">
+        <v>41907</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>287</v>
       </c>
@@ -8386,8 +9064,11 @@
       <c r="H219">
         <v>36</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I219" s="1">
+        <v>33796</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>207</v>
       </c>
@@ -8412,8 +9093,11 @@
       <c r="H220">
         <v>41</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I220" s="1">
+        <v>36973</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>474</v>
       </c>
@@ -8438,8 +9122,11 @@
       <c r="H221">
         <v>39</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I221" s="1">
+        <v>33855</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>476</v>
       </c>
@@ -8464,8 +9151,11 @@
       <c r="H222">
         <v>35</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I222" s="1">
+        <v>38666</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>479</v>
       </c>
@@ -8490,8 +9180,11 @@
       <c r="H223">
         <v>33</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I223" s="1">
+        <v>39816</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>481</v>
       </c>
@@ -8516,8 +9209,11 @@
       <c r="H224">
         <v>32</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I224" s="1">
+        <v>37232</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>262</v>
       </c>
@@ -8542,8 +9238,11 @@
       <c r="H225">
         <v>43</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I225" s="1">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>465</v>
       </c>
@@ -8568,8 +9267,11 @@
       <c r="H226">
         <v>41</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I226" s="1">
+        <v>35435</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>196</v>
       </c>
@@ -8594,8 +9296,11 @@
       <c r="H227">
         <v>35</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I227" s="1">
+        <v>40431</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>487</v>
       </c>
@@ -8620,8 +9325,11 @@
       <c r="H228">
         <v>42</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I228" s="1">
+        <v>43327</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>54</v>
       </c>
@@ -8646,8 +9354,11 @@
       <c r="H229">
         <v>41</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I229" s="1">
+        <v>35105</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>155</v>
       </c>
@@ -8672,8 +9383,11 @@
       <c r="H230">
         <v>42</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I230" s="1">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>155</v>
       </c>
@@ -8698,8 +9412,11 @@
       <c r="H231">
         <v>33</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I231" s="1">
+        <v>42117</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>492</v>
       </c>
@@ -8724,8 +9441,11 @@
       <c r="H232">
         <v>45</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I232" s="1">
+        <v>44928</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>494</v>
       </c>
@@ -8750,8 +9470,11 @@
       <c r="H233">
         <v>33</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I233" s="1">
+        <v>35971</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>496</v>
       </c>
@@ -8776,8 +9499,11 @@
       <c r="H234">
         <v>33</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I234" s="1">
+        <v>44574</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>499</v>
       </c>
@@ -8802,8 +9528,11 @@
       <c r="H235">
         <v>39</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I235" s="1">
+        <v>44556</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>501</v>
       </c>
@@ -8828,8 +9557,11 @@
       <c r="H236">
         <v>44</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I236" s="1">
+        <v>34418</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>503</v>
       </c>
@@ -8854,8 +9586,11 @@
       <c r="H237">
         <v>35</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I237" s="1">
+        <v>41187</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>505</v>
       </c>
@@ -8880,8 +9615,11 @@
       <c r="H238">
         <v>40</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I238" s="1">
+        <v>42621</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>510</v>
       </c>
@@ -8906,8 +9644,11 @@
       <c r="H239">
         <v>30</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I239" s="1">
+        <v>39233</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>513</v>
       </c>
@@ -8932,8 +9673,11 @@
       <c r="H240">
         <v>44</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I240" s="1">
+        <v>33081</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>503</v>
       </c>
@@ -8958,8 +9702,11 @@
       <c r="H241">
         <v>31</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I241" s="1">
+        <v>39728</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>203</v>
       </c>
@@ -8984,8 +9731,11 @@
       <c r="H242">
         <v>44</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I242" s="1">
+        <v>35855</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>392</v>
       </c>
@@ -9010,8 +9760,11 @@
       <c r="H243">
         <v>35</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I243" s="1">
+        <v>35911</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>519</v>
       </c>
@@ -9036,8 +9789,11 @@
       <c r="H244">
         <v>37</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I244" s="1">
+        <v>40898</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>521</v>
       </c>
@@ -9062,8 +9818,11 @@
       <c r="H245">
         <v>40</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I245" s="1">
+        <v>38350</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>523</v>
       </c>
@@ -9088,8 +9847,11 @@
       <c r="H246">
         <v>33</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I246" s="1">
+        <v>33714</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>525</v>
       </c>
@@ -9114,8 +9876,11 @@
       <c r="H247">
         <v>40</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I247" s="1">
+        <v>40292</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>528</v>
       </c>
@@ -9140,8 +9905,11 @@
       <c r="H248">
         <v>40</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I248" s="1">
+        <v>40295</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>530</v>
       </c>
@@ -9166,8 +9934,11 @@
       <c r="H249">
         <v>33</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I249" s="1">
+        <v>41677</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>221</v>
       </c>
@@ -9192,8 +9963,11 @@
       <c r="H250">
         <v>34</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I250" s="1">
+        <v>37096</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>205</v>
       </c>
@@ -9218,8 +9992,11 @@
       <c r="H251">
         <v>42</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I251" s="1">
+        <v>40384</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>534</v>
       </c>
@@ -9244,8 +10021,11 @@
       <c r="H252">
         <v>34</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I252" s="1">
+        <v>37053</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>87</v>
       </c>
@@ -9267,8 +10047,11 @@
       <c r="H253">
         <v>31</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I253" s="1">
+        <v>45441</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>123</v>
       </c>
@@ -9293,8 +10076,11 @@
       <c r="H254">
         <v>43</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I254" s="1">
+        <v>37993</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>134</v>
       </c>
@@ -9319,8 +10105,11 @@
       <c r="H255">
         <v>38</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I255" s="1">
+        <v>41995</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>541</v>
       </c>
@@ -9345,8 +10134,11 @@
       <c r="H256">
         <v>39</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I256" s="1">
+        <v>37701</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>544</v>
       </c>
@@ -9371,8 +10163,11 @@
       <c r="H257">
         <v>39</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I257" s="1">
+        <v>35790</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>546</v>
       </c>
@@ -9397,8 +10192,11 @@
       <c r="H258">
         <v>41</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I258" s="1">
+        <v>43417</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>191</v>
       </c>
@@ -9423,8 +10221,11 @@
       <c r="H259">
         <v>33</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I259" s="1">
+        <v>42035</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>181</v>
       </c>
@@ -9449,8 +10250,11 @@
       <c r="H260">
         <v>34</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I260" s="1">
+        <v>39992</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>550</v>
       </c>
@@ -9475,8 +10279,11 @@
       <c r="H261">
         <v>34</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I261" s="1">
+        <v>38366</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>553</v>
       </c>
@@ -9501,8 +10308,11 @@
       <c r="H262">
         <v>36</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I262" s="1">
+        <v>33303</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>295</v>
       </c>
@@ -9527,8 +10337,11 @@
       <c r="H263">
         <v>41</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I263" s="1">
+        <v>41452</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>556</v>
       </c>
@@ -9553,8 +10366,11 @@
       <c r="H264">
         <v>44</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I264" s="1">
+        <v>44008</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>47</v>
       </c>
@@ -9579,8 +10395,11 @@
       <c r="H265">
         <v>34</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I265" s="1">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>34</v>
       </c>
@@ -9605,8 +10424,11 @@
       <c r="H266">
         <v>34</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I266" s="1">
+        <v>40335</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>560</v>
       </c>
@@ -9631,8 +10453,11 @@
       <c r="H267">
         <v>34</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I267" s="1">
+        <v>43635</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>561</v>
       </c>
@@ -9657,8 +10482,11 @@
       <c r="H268">
         <v>38</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I268" s="1">
+        <v>42038</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>563</v>
       </c>
@@ -9683,8 +10511,11 @@
       <c r="H269">
         <v>38</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I269" s="1">
+        <v>36056</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>565</v>
       </c>
@@ -9709,8 +10540,11 @@
       <c r="H270">
         <v>41</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I270" s="1">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>567</v>
       </c>
@@ -9735,8 +10569,11 @@
       <c r="H271">
         <v>44</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I271" s="1">
+        <v>44158</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>87</v>
       </c>
@@ -9761,8 +10598,11 @@
       <c r="H272">
         <v>33</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I272" s="1">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>571</v>
       </c>
@@ -9787,8 +10627,11 @@
       <c r="H273">
         <v>35</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I273" s="1">
+        <v>41903</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>575</v>
       </c>
@@ -9813,8 +10656,11 @@
       <c r="H274">
         <v>40</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I274" s="1">
+        <v>38755</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>577</v>
       </c>
@@ -9839,8 +10685,11 @@
       <c r="H275">
         <v>35</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I275" s="1">
+        <v>41216</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>39</v>
       </c>
@@ -9865,8 +10714,11 @@
       <c r="H276">
         <v>30</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I276" s="1">
+        <v>42608</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>331</v>
       </c>
@@ -9891,8 +10743,11 @@
       <c r="H277">
         <v>37</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I277" s="1">
+        <v>34395</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>221</v>
       </c>
@@ -9917,8 +10772,11 @@
       <c r="H278">
         <v>38</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I278" s="1">
+        <v>34496</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>583</v>
       </c>
@@ -9943,8 +10801,11 @@
       <c r="H279">
         <v>45</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I279" s="1">
+        <v>38990</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>583</v>
       </c>
@@ -9969,8 +10830,11 @@
       <c r="H280">
         <v>32</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I280" s="1">
+        <v>42567</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>583</v>
       </c>
@@ -9995,8 +10859,11 @@
       <c r="H281">
         <v>30</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I281" s="1">
+        <v>38309</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>87</v>
       </c>
@@ -10021,8 +10888,11 @@
       <c r="H282">
         <v>45</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I282" s="1">
+        <v>41798</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>134</v>
       </c>
@@ -10047,8 +10917,11 @@
       <c r="H283">
         <v>43</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I283" s="1">
+        <v>42493</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>589</v>
       </c>
@@ -10070,8 +10943,11 @@
       <c r="H284">
         <v>44</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I284" s="1">
+        <v>45623</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>75</v>
       </c>
@@ -10096,8 +10972,11 @@
       <c r="H285">
         <v>35</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I285" s="1">
+        <v>38609</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>592</v>
       </c>
@@ -10122,8 +11001,11 @@
       <c r="H286">
         <v>31</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I286" s="1">
+        <v>33576</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>594</v>
       </c>
@@ -10148,8 +11030,11 @@
       <c r="H287">
         <v>44</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I287" s="1">
+        <v>38623</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>596</v>
       </c>
@@ -10174,8 +11059,11 @@
       <c r="H288">
         <v>30</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I288" s="1">
+        <v>41996</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>598</v>
       </c>
@@ -10200,8 +11088,11 @@
       <c r="H289">
         <v>36</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I289" s="1">
+        <v>44744</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>54</v>
       </c>
@@ -10226,8 +11117,11 @@
       <c r="H290">
         <v>34</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I290" s="1">
+        <v>41494</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>601</v>
       </c>
@@ -10252,8 +11146,11 @@
       <c r="H291">
         <v>40</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I291" s="1">
+        <v>39368</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>604</v>
       </c>
@@ -10278,8 +11175,11 @@
       <c r="H292">
         <v>37</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I292" s="1">
+        <v>38720</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>606</v>
       </c>
@@ -10304,8 +11204,11 @@
       <c r="H293">
         <v>37</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I293" s="1">
+        <v>33487</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>608</v>
       </c>
@@ -10330,8 +11233,11 @@
       <c r="H294">
         <v>35</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I294" s="1">
+        <v>42616</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>610</v>
       </c>
@@ -10356,8 +11262,11 @@
       <c r="H295">
         <v>35</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I295" s="1">
+        <v>45204</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>613</v>
       </c>
@@ -10382,8 +11291,11 @@
       <c r="H296">
         <v>35</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I296" s="1">
+        <v>36379</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>614</v>
       </c>
@@ -10407,6 +11319,9 @@
       </c>
       <c r="H297">
         <v>44</v>
+      </c>
+      <c r="I297" s="1">
+        <v>39149</v>
       </c>
     </row>
   </sheetData>
